--- a/診断者03_身長入力画面_エビデンス.xlsx
+++ b/診断者03_身長入力画面_エビデンス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="837" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33893AD-2512-411C-9D22-081BAE2F9B1D}"/>
+  <xr:revisionPtr revIDLastSave="878" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E556EA1-E57A-4AD9-82D5-99D9636021ED}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>単体テスト_エビデンス</t>
     <rPh sb="0" eb="2">
@@ -286,16 +286,6 @@
   </si>
   <si>
     <t>0を入力した場合</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1を入力した場合</t>
     <rPh sb="2" eb="4">
       <t>ニュウリョク</t>
     </rPh>
@@ -887,6 +877,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,6 +895,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,15 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,22 +1330,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11327</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>132882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A3E812-410D-40F7-8579-8B8FFFF1E2D5}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779A1723-076B-BCBE-CDF8-1A9567DB3DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,8 +1361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="60078939"/>
-          <a:ext cx="6083514" cy="5072062"/>
+          <a:off x="269875" y="96678751"/>
+          <a:ext cx="6088063" cy="5197006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,21 +1375,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>11730</xdr:rowOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>132880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17ADCB8-E013-79E8-7948-FC96F003D0E3}"/>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C59DA0E-43AE-ABFB-260C-E43C1E126250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,8 +1405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="55014813"/>
-          <a:ext cx="6088063" cy="5075855"/>
+          <a:off x="269875" y="91384438"/>
+          <a:ext cx="6088063" cy="5197005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1429,21 +1419,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>20847</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>132882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1FB608-A1FE-DA28-810C-98EBF0A849C5}"/>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22E08A7-14CB-8263-E2BC-F946BF8200C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,8 +1449,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="49950688"/>
-          <a:ext cx="6093035" cy="5080000"/>
+          <a:off x="269875" y="50871439"/>
+          <a:ext cx="6088063" cy="5197006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,22 +1462,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11327</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>119328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C510A5-0090-B6B3-2075-BBEBFAAD1E0F}"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9EC316-3368-CB1D-AE0C-D7C0E61C3326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,8 +1493,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="44656375"/>
-          <a:ext cx="6083515" cy="5072063"/>
+          <a:off x="269876" y="45577125"/>
+          <a:ext cx="6072187" cy="5183453"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,21 +1507,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8631</xdr:colOff>
-      <xdr:row>487</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>132882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="図 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947C5F6A-CB2E-A151-08D6-741C8434C4E2}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2CF491-51AF-7A7A-C86D-849142DE88C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,8 +1537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="106576814"/>
-          <a:ext cx="6080819" cy="5230812"/>
+          <a:off x="269875" y="24399876"/>
+          <a:ext cx="6088063" cy="5197006"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,22 +1550,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>442</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>464</xdr:row>
-      <xdr:rowOff>166090</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>132880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="図 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8971C0A5-C697-D16B-4559-9C588C968C5D}"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1660A9E8-EDF0-6FBE-AA5F-192B7CE2016A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,8 +1581,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="101282500"/>
-          <a:ext cx="6080125" cy="5230215"/>
+          <a:off x="269876" y="29694189"/>
+          <a:ext cx="6088062" cy="5197004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,22 +1594,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>8633</xdr:colOff>
-      <xdr:row>440</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:colOff>20847</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="図 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EBBDB4-4500-7A28-A5AF-B89613390C1F}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1FB608-A1FE-DA28-810C-98EBF0A849C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,8 +1625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="95758000"/>
-          <a:ext cx="6080820" cy="5230813"/>
+          <a:off x="269875" y="49950688"/>
+          <a:ext cx="6093035" cy="5080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,21 +1639,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>417</xdr:row>
-      <xdr:rowOff>179746</xdr:rowOff>
+      <xdr:colOff>11327</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="図 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8DF7BF-48E5-0933-83B2-59A3C6786CC2}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C510A5-0090-B6B3-2075-BBEBFAAD1E0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,8 +1669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="90463688"/>
-          <a:ext cx="6096000" cy="5243871"/>
+          <a:off x="269875" y="44656375"/>
+          <a:ext cx="6083515" cy="5072063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1692,22 +1682,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>174626</xdr:rowOff>
+      <xdr:colOff>8633</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="図 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8043DBA4-24C8-59AE-2168-E90AA5567E5C}"/>
+        <xdr:cNvPr id="135" name="図 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EBBDB4-4500-7A28-A5AF-B89613390C1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,8 +1713,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="84939189"/>
-          <a:ext cx="6090047" cy="5238750"/>
+          <a:off x="269876" y="95758000"/>
+          <a:ext cx="6080820" cy="5230813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,21 +1727,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>370</xdr:row>
-      <xdr:rowOff>172918</xdr:rowOff>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>179746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="図 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFCC2BC-D14A-D5EB-330B-B9BE126AE864}"/>
+        <xdr:cNvPr id="133" name="図 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8DF7BF-48E5-0933-83B2-59A3C6786CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,8 +1757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="79644875"/>
-          <a:ext cx="6088063" cy="5237043"/>
+          <a:off x="269875" y="90463688"/>
+          <a:ext cx="6096000" cy="5243871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,22 +1770,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>642939</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>176247</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>174626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="図 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE382C7-9A02-830B-52F4-4C7B85F8E484}"/>
+        <xdr:cNvPr id="132" name="図 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8043DBA4-24C8-59AE-2168-E90AA5567E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,8 +1801,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="66524188"/>
-          <a:ext cx="5500688" cy="2017747"/>
+          <a:off x="269875" y="84939189"/>
+          <a:ext cx="6090047" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,22 +1814,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>179746</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>172918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18A1AAC-DC1B-B682-C6AE-4AD832702144}"/>
+        <xdr:cNvPr id="130" name="図 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFCC2BC-D14A-D5EB-330B-B9BE126AE864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,8 +1845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="23248938"/>
-          <a:ext cx="6096000" cy="5243871"/>
+          <a:off x="269875" y="79644875"/>
+          <a:ext cx="6088063" cy="5237043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,22 +1858,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642939</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>176247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DD5252-15AF-D7FF-50AC-3EFD54B5E20C}"/>
+        <xdr:cNvPr id="86" name="図 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE382C7-9A02-830B-52F4-4C7B85F8E484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,8 +1889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="17494250"/>
-          <a:ext cx="6090047" cy="5238750"/>
+          <a:off x="269876" y="66524188"/>
+          <a:ext cx="5500688" cy="2017747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,21 +1903,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>166090</xdr:rowOff>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A732A0BA-FB55-47D8-B171-335B7D82054E}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DD5252-15AF-D7FF-50AC-3EFD54B5E20C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,8 +1933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="12199938"/>
-          <a:ext cx="6080125" cy="5230215"/>
+          <a:off x="269875" y="17494250"/>
+          <a:ext cx="6090047" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1957,21 +1947,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>135983</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>166090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E39321D-313B-034F-37E7-75A8B95AFC2D}"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A732A0BA-FB55-47D8-B171-335B7D82054E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,6 +1971,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="12199938"/>
+          <a:ext cx="6080125" cy="5230215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E39321D-313B-034F-37E7-75A8B95AFC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2230,7 +2264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2717,62 +2751,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>186574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCD4C89-5A5C-5936-96F2-0C09B801ECBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="28543250"/>
-          <a:ext cx="6103938" cy="5250699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
+      <xdr:colOff>436563</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>915078</xdr:colOff>
+      <xdr:colOff>851578</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
+      <xdr:rowOff>34019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2787,7 +2777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3198813" y="26828750"/>
+          <a:off x="3135313" y="27868563"/>
           <a:ext cx="1629453" cy="478519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2830,15 +2820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:colOff>968375</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>892404</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:colOff>844779</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>222252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2853,7 +2843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2500313" y="25709563"/>
+          <a:off x="2452688" y="26503313"/>
           <a:ext cx="1090841" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2893,69 +2883,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>269874</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>172919</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F943A3-5CE7-1A9E-1201-A31AE10447DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269874" y="34297938"/>
-          <a:ext cx="6088063" cy="5237044"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
+      <xdr:colOff>404813</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>899203</xdr:colOff>
+      <xdr:colOff>819828</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>137207</xdr:rowOff>
+      <xdr:rowOff>49894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD009C-6E47-4B07-8A16-7232539BC2B1}"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D90A7A8-1143-4D0E-9A96-52AF449DCF3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2909,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3182938" y="37869813"/>
+          <a:off x="3103563" y="48140938"/>
           <a:ext cx="1629453" cy="478519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3006,22 +2952,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876529</xdr:colOff>
+      <xdr:colOff>828904</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>111127</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5190781D-9CCA-4808-8C0C-0B5EFFA24962}"/>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5872B6-8BDA-4EDA-A62D-3DD65A307952}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +2975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484438" y="36520438"/>
+          <a:off x="2436813" y="46831250"/>
           <a:ext cx="1090841" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3069,69 +3015,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>341313</xdr:colOff>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>179746</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217BCCE4-B22F-F57A-9C4F-6F9EA1AB0CE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="39592250"/>
-          <a:ext cx="6096000" cy="5243871"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1166813</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84470944-2B50-4F62-984B-0BF4FAD85517}"/>
+        <xdr:cNvPr id="70" name="吹き出し: 四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AD7A37-5D48-4A57-A0A1-577F70E02D65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,139 +3041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2222500" y="31321375"/>
-          <a:ext cx="1643063" cy="420688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>396874</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="吹き出し: 四角形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E795DA1A-71AD-43B0-AFEA-A298C39E13C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5508624" y="30932438"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>エラーメッセージが表示された</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="吹き出し: 四角形 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BDB943-BF96-4DA0-BF44-AC8114BD183A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5627688" y="41552813"/>
+          <a:off x="5468938" y="52712938"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3322,22 +3092,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>843641</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819828</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>49894</xdr:rowOff>
+      <xdr:rowOff>26081</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D90A7A8-1143-4D0E-9A96-52AF449DCF3F}"/>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF153BD-6535-49BD-BFA2-D494632B38E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3103563" y="48140938"/>
+          <a:off x="3127376" y="49037875"/>
           <a:ext cx="1629453" cy="478519"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3388,22 +3158,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:colOff>968375</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>828904</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>844779</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>222252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5872B6-8BDA-4EDA-A62D-3DD65A307952}"/>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513BC022-F631-4421-9C40-5E5843F04AE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,7 +3181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2436813" y="46831250"/>
+          <a:off x="2452688" y="47680563"/>
           <a:ext cx="1090841" cy="420689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3453,23 +3223,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>341313</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>650874</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>206371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230186</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="吹き出し: 四角形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AD7A37-5D48-4A57-A0A1-577F70E02D65}"/>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF290EE-308B-42AE-B049-4961B89A789E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3247,1202 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468938" y="52712938"/>
+          <a:off x="2135187" y="52919309"/>
+          <a:ext cx="2008187" cy="333379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150812</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="吹き出し: 四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AA73FB-FC73-4163-BA62-73FAEEEE872D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5278437" y="52546249"/>
+          <a:ext cx="2444750" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>エラーメッセージが表示された</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1213843</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3396CF81-4F7F-73F3-DA7F-9629C44CB97E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="68595875"/>
+          <a:ext cx="6071593" cy="5222875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>111123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D82D98-17BB-474C-8B5A-6E237EA2ABD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2508250" y="70778686"/>
+          <a:ext cx="1063625" cy="460377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>706436</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="吹き出し: 四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F88F010-7A71-4AEF-BE3E-8B1434E4B877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4603749" y="70389750"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ペースト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1213843</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="図 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6B950F-28C1-4EDD-8B2C-90220D4BADD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="73890188"/>
+          <a:ext cx="6071593" cy="5222875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B821D462-E019-4726-A139-C21B95DF0EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2508250" y="76072999"/>
+          <a:ext cx="1063625" cy="460377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>706436</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="吹き出し: 四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A20AB2-FED1-4B47-909E-EE51A104D927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4603749" y="75684063"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>値が変わらないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5500688" cy="2017747"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45DFF38-B16B-4877-B3DE-A9D5446C229C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="66524188"/>
+          <a:ext cx="5500688" cy="2017747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>915078</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>145144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4C4AEC-03FC-4B0C-BFD8-052FD1E13E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3198813" y="26598563"/>
+          <a:ext cx="1629453" cy="478519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>904876</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>293687</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC55F887-691E-49E8-BA35-8E612321D167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3603626" y="81875313"/>
+          <a:ext cx="603249" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>899203</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>137207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA68D32-0429-4895-8FA9-882359DE8DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3182938" y="37409438"/>
+          <a:ext cx="1629453" cy="478519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>889001</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>150814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99C818E-3D5B-4A43-8889-913F32E23923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587751" y="92686189"/>
+          <a:ext cx="635000" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>859516</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB5C40B-9164-40BA-A500-14FF5F9182D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143251" y="94853125"/>
+          <a:ext cx="1629453" cy="478519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846AB4A-468B-4F9E-88DF-FEF6C31F849C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3532187" y="93487875"/>
+          <a:ext cx="658813" cy="420687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6071593" cy="5222875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="図 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A3D7D8-1AC1-4398-88BF-F5A3CAEDAC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="68595875"/>
+          <a:ext cx="6071593" cy="5222875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857251</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6B0653-A189-42D7-96CC-9B93FFC5B7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556001" y="116601873"/>
+          <a:ext cx="666750" cy="460377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150812</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="吹き出し: 四角形 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB8555B-FCC1-460B-A894-BE22B3F4EB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262562" y="116268499"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ペースト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6071593" cy="5222875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="図 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF7C33-2E46-4BA5-8E78-4DB9AC3113F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="73890188"/>
+          <a:ext cx="6071593" cy="5222875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277811</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="吹き出し: 四角形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BE2634-3E7F-4769-A1EA-9E2651699F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5389561" y="121451688"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>値が変わらないことを確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579438</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="吹き出し: 四角形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1C2DD1-2F85-4033-9C11-762D5A9D4188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5707063" y="86979125"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3527,23 +4492,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>39687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>819829</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>57831</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>841375</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF153BD-6535-49BD-BFA2-D494632B38E4}"/>
+        <xdr:cNvPr id="134" name="吹き出し: 四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C7B685-7164-4CC2-A582-E96E7E000D2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,1334 +4516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3103564" y="58507312"/>
-          <a:ext cx="1629453" cy="478519"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>960438</xdr:colOff>
-      <xdr:row>254</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>836842</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>63502</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513BC022-F631-4421-9C40-5E5843F04AE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2444751" y="57189688"/>
-          <a:ext cx="1090841" cy="420689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>627062</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>174622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1158875</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>134936</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF290EE-308B-42AE-B049-4961B89A789E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2111375" y="62555435"/>
-          <a:ext cx="1746250" cy="420689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>341312</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="吹き出し: 四角形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AA73FB-FC73-4163-BA62-73FAEEEE872D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5453062" y="63380937"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>エラーメッセージが表示された</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="図 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3396CF81-4F7F-73F3-DA7F-9629C44CB97E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="68595875"/>
-          <a:ext cx="6071593" cy="5222875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>111123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D82D98-17BB-474C-8B5A-6E237EA2ABD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2508250" y="70778686"/>
-          <a:ext cx="1063625" cy="460377"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>307</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="吹き出し: 四角形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F88F010-7A71-4AEF-BE3E-8B1434E4B877}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4603749" y="70389750"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ペースト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1213843</xdr:colOff>
-      <xdr:row>345</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="図 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6B950F-28C1-4EDD-8B2C-90220D4BADD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="73890188"/>
-          <a:ext cx="6071593" cy="5222875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1023937</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>334</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="正方形/長方形 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B821D462-E019-4726-A139-C21B95DF0EA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2508250" y="76072999"/>
-          <a:ext cx="1063625" cy="460377"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>330</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>706436</xdr:colOff>
-      <xdr:row>334</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="吹き出し: 四角形 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A20AB2-FED1-4B47-909E-EE51A104D927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4603749" y="75684063"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>値が変わらないことを確認</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>490</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5500688" cy="2017747"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="図 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45DFF38-B16B-4877-B3DE-A9D5446C229C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269876" y="66524188"/>
-          <a:ext cx="5500688" cy="2017747"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>363</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>915078</xdr:colOff>
-      <xdr:row>365</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4C4AEC-03FC-4B0C-BFD8-052FD1E13E85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3198813" y="26598563"/>
-          <a:ext cx="1629453" cy="478519"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>357</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>359</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC55F887-691E-49E8-BA35-8E612321D167}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3603626" y="81875313"/>
-          <a:ext cx="603249" cy="396875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>137207</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA68D32-0429-4895-8FA9-882359DE8DF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3182938" y="37409438"/>
-          <a:ext cx="1629453" cy="478519"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>889001</xdr:colOff>
-      <xdr:row>404</xdr:row>
-      <xdr:rowOff>150814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99C818E-3D5B-4A43-8889-913F32E23923}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3587751" y="92686189"/>
-          <a:ext cx="635000" cy="404812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>457</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>899203</xdr:colOff>
-      <xdr:row>459</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB5C40B-9164-40BA-A500-14FF5F9182D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3182938" y="48236188"/>
-          <a:ext cx="1629453" cy="478519"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>873125</xdr:colOff>
-      <xdr:row>451</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>453</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846AB4A-468B-4F9E-88DF-FEF6C31F849C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="103497063"/>
-          <a:ext cx="658813" cy="420687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>499</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6071593" cy="5222875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="図 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A3D7D8-1AC1-4398-88BF-F5A3CAEDAC07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="68595875"/>
-          <a:ext cx="6071593" cy="5222875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>508</xdr:row>
-      <xdr:rowOff>126998</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6B0653-A189-42D7-96CC-9B93FFC5B7D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3556001" y="116601873"/>
-          <a:ext cx="666750" cy="460377"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>150812</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="吹き出し: 四角形 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB8555B-FCC1-460B-A894-BE22B3F4EB81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5262562" y="116268499"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ペースト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>522</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6071593" cy="5222875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="図 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF7C33-2E46-4BA5-8E78-4DB9AC3113F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="73890188"/>
-          <a:ext cx="6071593" cy="5222875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>529</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277811</xdr:colOff>
-      <xdr:row>533</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="吹き出し: 四角形 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BE2634-3E7F-4769-A1EA-9E2651699F43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5389561" y="121451688"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>値が変わらないことを確認</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>383</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="吹き出し: 四角形 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1C2DD1-2F85-4033-9C11-762D5A9D4188}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5707063" y="86979125"/>
+          <a:off x="5969000" y="98020188"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -4928,23 +4566,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>427</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>431</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>754061</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="吹き出し: 四角形 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C7B685-7164-4CC2-A582-E96E7E000D2F}"/>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27E6E87-85A4-4C36-8324-A90894113325}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4952,7 +4590,205 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5969000" y="98020188"/>
+          <a:off x="2238374" y="98726624"/>
+          <a:ext cx="1770063" cy="349251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531812</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="吹き出し: 四角形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D9C461-941B-4281-A393-E6D85C80352B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5659437" y="98329751"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>エラーメッセージが表示された</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>849313</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C1C48B-E082-436B-BDB6-EB0C402B9574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548063" y="121888250"/>
+          <a:ext cx="666750" cy="460377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015CA10B-DF4D-453C-B2F2-15802DE83773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5794375" y="31519813"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -4995,204 +4831,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>次の画面に遷移した</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373062</xdr:colOff>
-      <xdr:row>475</xdr:row>
-      <xdr:rowOff>230186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>817562</xdr:colOff>
-      <xdr:row>477</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27E6E87-85A4-4C36-8324-A90894113325}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3071812" y="109108874"/>
-          <a:ext cx="1658938" cy="444501"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>474</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>777874</xdr:colOff>
-      <xdr:row>478</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="吹き出し: 四角形 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D9C461-941B-4281-A393-E6D85C80352B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5889624" y="108759626"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>エラーメッセージが表示された</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>849313</xdr:colOff>
-      <xdr:row>531</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>533</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="正方形/長方形 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C1C48B-E082-436B-BDB6-EB0C402B9574}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3548063" y="121888250"/>
-          <a:ext cx="666750" cy="460377"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8703,10 +8341,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9030,51 +8664,51 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9105,65 +8739,65 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -9182,7 +8816,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A075E7E1-1AA8-486C-B4E0-C504231248B3}">
-  <dimension ref="B2:H490"/>
+  <dimension ref="B2:H445"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -9196,81 +8830,81 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
@@ -9279,7 +8913,7 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -9302,65 +8936,60 @@
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B200" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B198" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B245" t="s">
-        <v>58</v>
+      <c r="B245" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B290" s="5" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B291" t="s">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B302" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B347" s="5" t="s">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B303" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="336" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B350" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B348" s="6" t="s">
-        <v>48</v>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B397" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="381" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="4"/>
-      <c r="G381" s="4"/>
-      <c r="H381" s="4"/>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B444" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B395" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B442" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B489" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B490" t="s">
-        <v>51</v>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B445" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9399,75 +9028,75 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -9487,38 +9116,38 @@
       <c r="H12" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="21"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="21"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="21"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="21"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="21"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9556,51 +9185,51 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6" t="s">
@@ -9686,7 +9315,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9786,7 +9415,7 @@
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -9882,7 +9511,7 @@
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.55000000000000004">
